--- a/模板_第一事业部_姓名_工作日志_20180326.xlsx
+++ b/模板_第一事业部_姓名_工作日志_20180326.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="21000" windowHeight="8895" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="01-工作日志" sheetId="21" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="第一事业部_黄玉_工作日志_20190306" sheetId="24" r:id="rId4"/>
     <sheet name="第一事业部_黄玉_工作日志_20190307" sheetId="25" r:id="rId5"/>
     <sheet name="第一事业部_黄玉_工作日志_20190308" sheetId="26" r:id="rId6"/>
+    <sheet name="第一事业部_黄玉_工作日志_201903011" sheetId="27" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>工作日志</t>
   </si>
@@ -221,6 +222,33 @@
   </si>
   <si>
     <t>继续进行sql的学习</t>
+  </si>
+  <si>
+    <t>过程化sql的语法学习</t>
+  </si>
+  <si>
+    <t>8:30-10:30</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>山哥为我们新入职的同事进行lims行业的业务培训，主要讲了下业务流程结构，表结构等</t>
+  </si>
+  <si>
+    <t>10:30-12:00</t>
+  </si>
+  <si>
+    <t>在nowcoder网站上进行sql练习</t>
+  </si>
+  <si>
+    <t>13：00-16:30</t>
+  </si>
+  <si>
+    <t>针对上午的业务培训，理一遍思路</t>
+  </si>
+  <si>
+    <t>对于sql的连接查询，集合的操作已能熟练的应用，只是在nowcoder站点的sql都比较困难，所以花的时间比较多，针对业务培训，部分内容需要结合到具体项目进行理解</t>
   </si>
 </sst>
 </file>
@@ -228,10 +256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
@@ -300,81 +328,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,9 +357,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,9 +395,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,6 +419,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -464,7 +492,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +522,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,19 +624,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,19 +654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,109 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,11 +790,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,6 +810,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,43 +838,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,11 +862,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,10 +895,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,133 +907,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2762,8 +2790,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2983,4 +3011,268 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="63.25" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="38.45" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="39.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28.9" customHeight="1" spans="1:6">
+      <c r="A8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="25.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="0.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" ht="32.45" customHeight="1" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" ht="29.25" customHeight="1" spans="1:6">
+      <c r="A13" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" ht="28.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" customFormat="1" spans="2:2">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" customFormat="1" spans="2:2">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" customFormat="1" spans="2:2">
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" customFormat="1" spans="2:2">
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" customFormat="1" spans="2:2">
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:2">
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" customFormat="1" spans="2:2">
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:2">
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:2">
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" customFormat="1" spans="2:2">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" customFormat="1" spans="2:2">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:2">
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:2">
+      <c r="B27" s="21"/>
+    </row>
+    <row r="28" customFormat="1" spans="2:2">
+      <c r="B28" s="21"/>
+    </row>
+    <row r="29" customFormat="1" spans="2:2">
+      <c r="B29" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/模板_第一事业部_姓名_工作日志_20180326.xlsx
+++ b/模板_第一事业部_姓名_工作日志_20180326.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8895" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="21000" windowHeight="8895" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="01-工作日志" sheetId="21" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="第一事业部_黄玉_工作日志_20190307" sheetId="25" r:id="rId5"/>
     <sheet name="第一事业部_黄玉_工作日志_20190308" sheetId="26" r:id="rId6"/>
     <sheet name="第一事业部_黄玉_工作日志_201903011" sheetId="27" r:id="rId7"/>
+    <sheet name="第一事业部_黄玉_工作日志_201903012" sheetId="28" r:id="rId8"/>
+    <sheet name="第一事业部_黄玉_工作日志_201903013" sheetId="29" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>工作日志</t>
   </si>
@@ -249,6 +251,42 @@
   </si>
   <si>
     <t>对于sql的连接查询，集合的操作已能熟练的应用，只是在nowcoder站点的sql都比较困难，所以花的时间比较多，针对业务培训，部分内容需要结合到具体项目进行理解</t>
+  </si>
+  <si>
+    <t>练习sql语句的书写</t>
+  </si>
+  <si>
+    <t>进行spring框架学习</t>
+  </si>
+  <si>
+    <t>准备出差事宜</t>
+  </si>
+  <si>
+    <t>本人的git账号好像还没有开启项目权限，目前无法看项目上的代码</t>
+  </si>
+  <si>
+    <t>到东莞出差，对接项目代码，熟悉项目业务</t>
+  </si>
+  <si>
+    <t>从成都出差到东莞中鼎检测客户现场</t>
+  </si>
+  <si>
+    <t>8:30-17:30</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>下载项目代码</t>
+  </si>
+  <si>
+    <t>17:30-21:00</t>
+  </si>
+  <si>
+    <t>目前使用的是同事的svn账号，本人需要申请一个账号供代码管理使用</t>
+  </si>
+  <si>
+    <t>熟悉业务和代码</t>
   </si>
 </sst>
 </file>
@@ -257,8 +295,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
@@ -328,7 +366,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,7 +374,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,13 +410,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -372,7 +417,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,18 +477,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,53 +503,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,19 +530,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,79 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,13 +608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,7 +626,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,43 +704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,17 +828,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,9 +863,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,15 +887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -862,28 +902,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,10 +933,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,133 +945,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3018,8 +3056,8 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3275,4 +3313,478 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="63.25" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="38.45" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="39.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.9" customHeight="1" spans="1:6">
+      <c r="A7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="25.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="0.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" ht="32.45" customHeight="1" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" ht="29.25" customHeight="1" spans="1:6">
+      <c r="A12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" ht="28.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" customFormat="1" spans="2:2">
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" customFormat="1" spans="2:2">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" customFormat="1" spans="2:2">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" customFormat="1" spans="2:2">
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" customFormat="1" spans="2:2">
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" customFormat="1" spans="2:2">
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:2">
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" customFormat="1" spans="2:2">
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:2">
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:2">
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" customFormat="1" spans="2:2">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" customFormat="1" spans="2:2">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:2">
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:2">
+      <c r="B27" s="21"/>
+    </row>
+    <row r="28" customFormat="1" spans="2:2">
+      <c r="B28" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="63.25" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="38.45" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="39.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.9" customHeight="1" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="25.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="0.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" ht="32.45" customHeight="1" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" ht="29.25" customHeight="1" spans="1:6">
+      <c r="A11" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" ht="28.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" customFormat="1" spans="2:2">
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" customFormat="1" spans="2:2">
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" customFormat="1" spans="2:2">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" customFormat="1" spans="2:2">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" customFormat="1" spans="2:2">
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" customFormat="1" spans="2:2">
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" customFormat="1" spans="2:2">
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:2">
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" customFormat="1" spans="2:2">
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:2">
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:2">
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" customFormat="1" spans="2:2">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" customFormat="1" spans="2:2">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:2">
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:2">
+      <c r="B27" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/模板_第一事业部_姓名_工作日志_20180326.xlsx
+++ b/模板_第一事业部_姓名_工作日志_20180326.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8895" firstSheet="6" activeTab="8"/>
+    <workbookView windowWidth="24000" windowHeight="9765" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="01-工作日志" sheetId="21" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="第一事业部_黄玉_工作日志_201903011" sheetId="27" r:id="rId7"/>
     <sheet name="第一事业部_黄玉_工作日志_201903012" sheetId="28" r:id="rId8"/>
     <sheet name="第一事业部_黄玉_工作日志_201903013" sheetId="29" r:id="rId9"/>
+    <sheet name="第一事业部_黄玉_工作日志_201903014" sheetId="30" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>工作日志</t>
   </si>
@@ -287,6 +288,24 @@
   </si>
   <si>
     <t>熟悉业务和代码</t>
+  </si>
+  <si>
+    <t>调通中鼎检测的项目代码，处理bug</t>
+  </si>
+  <si>
+    <t>阅读东莞crm需求调研说明书，熟悉系统的使用，进行简单的系统测试</t>
+  </si>
+  <si>
+    <t>13:30-21:00</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>目前对工作流不是很熟悉，部分数据库内容不能理解</t>
+  </si>
+  <si>
+    <t>继续熟悉业务模块，学习工作流的使用</t>
   </si>
 </sst>
 </file>
@@ -294,10 +313,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
@@ -366,6 +385,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -373,20 +399,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -417,15 +429,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,52 +440,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,6 +454,67 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,7 +549,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +633,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,109 +663,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,13 +687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,13 +705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,6 +865,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -856,18 +884,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,26 +919,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,7 +952,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -945,133 +964,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1875,6 +1894,234 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="63.25" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="38.45" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="39.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.9" customHeight="1" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="25.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="0.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" ht="32.45" customHeight="1" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" ht="29.25" customHeight="1" spans="1:6">
+      <c r="A11" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" ht="28.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" customFormat="1" spans="2:2">
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" customFormat="1" spans="2:2">
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" customFormat="1" spans="2:2">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" customFormat="1" spans="2:2">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" customFormat="1" spans="2:2">
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" customFormat="1" spans="2:2">
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" customFormat="1" spans="2:2">
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:2">
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" customFormat="1" spans="2:2">
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:2">
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:2">
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" customFormat="1" spans="2:2">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" customFormat="1" spans="2:2">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:2">
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:2">
+      <c r="B27" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -3566,8 +3813,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/模板_第一事业部_姓名_工作日志_20180326.xlsx
+++ b/模板_第一事业部_姓名_工作日志_20180326.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765" firstSheet="7" activeTab="9"/>
+    <workbookView windowWidth="24000" windowHeight="9765" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="01-工作日志" sheetId="21" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="第一事业部_黄玉_工作日志_201903012" sheetId="28" r:id="rId8"/>
     <sheet name="第一事业部_黄玉_工作日志_201903013" sheetId="29" r:id="rId9"/>
     <sheet name="第一事业部_黄玉_工作日志_201903014" sheetId="30" r:id="rId10"/>
+    <sheet name="第一事业部_黄玉_工作日志_201903015" sheetId="31" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="97">
   <si>
     <t>工作日志</t>
   </si>
@@ -306,6 +307,21 @@
   </si>
   <si>
     <t>继续熟悉业务模块，学习工作流的使用</t>
+  </si>
+  <si>
+    <t>学习并理解activiti工作流和mybits框架在本项目中的应用</t>
+  </si>
+  <si>
+    <t>通过需求文档的阅读，数据字典的查看，与业务代码的结合熟悉本系统的客户管理和报价管理模块，并进行部分模块的测试</t>
+  </si>
+  <si>
+    <t>13:30-18:00</t>
+  </si>
+  <si>
+    <t>部分数据表的字段过多，数据的查询优化不够，导致运行时反应时间很长</t>
+  </si>
+  <si>
+    <t>针对问题模块进行功能测试</t>
   </si>
 </sst>
 </file>
@@ -314,9 +330,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
@@ -385,13 +401,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -399,15 +408,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -415,7 +416,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,7 +430,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,6 +449,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,29 +478,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,7 +493,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,9 +522,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,6 +565,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -561,43 +691,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,127 +745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,6 +863,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -858,33 +898,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,17 +917,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,6 +933,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,16 +980,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,115 +998,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1899,8 +1915,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2046,6 +2062,234 @@
     <row r="11" ht="29.25" customHeight="1" spans="1:6">
       <c r="A11" s="18" t="s">
         <v>91</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" ht="28.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" customFormat="1" spans="2:2">
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" customFormat="1" spans="2:2">
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" customFormat="1" spans="2:2">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" customFormat="1" spans="2:2">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" customFormat="1" spans="2:2">
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" customFormat="1" spans="2:2">
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" customFormat="1" spans="2:2">
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:2">
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" customFormat="1" spans="2:2">
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:2">
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:2">
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" customFormat="1" spans="2:2">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" customFormat="1" spans="2:2">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:2">
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:2">
+      <c r="B27" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="63.25" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="38.45" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="39.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.9" customHeight="1" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="25.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="0.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" ht="32.45" customHeight="1" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" ht="29.25" customHeight="1" spans="1:6">
+      <c r="A11" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>

--- a/模板_第一事业部_姓名_工作日志_20180326.xlsx
+++ b/模板_第一事业部_姓名_工作日志_20180326.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765" firstSheet="8" activeTab="10"/>
+    <workbookView windowWidth="24000" windowHeight="9765" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="01-工作日志" sheetId="21" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="第一事业部_黄玉_工作日志_201903013" sheetId="29" r:id="rId9"/>
     <sheet name="第一事业部_黄玉_工作日志_201903014" sheetId="30" r:id="rId10"/>
     <sheet name="第一事业部_黄玉_工作日志_201903015" sheetId="31" r:id="rId11"/>
+    <sheet name="第一事业部_黄玉_工作日志_201903018" sheetId="32" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="102">
   <si>
     <t>工作日志</t>
   </si>
@@ -322,6 +323,21 @@
   </si>
   <si>
     <t>针对问题模块进行功能测试</t>
+  </si>
+  <si>
+    <t>对客户管理模块进行功能测试，并进行页面内容的优化</t>
+  </si>
+  <si>
+    <t>东莞中鼎检测中心</t>
+  </si>
+  <si>
+    <t>对报价管理模块，销账管理部分模块进行功能测试，并协助更改有问题的部分</t>
+  </si>
+  <si>
+    <t>关于销账管理模块bug较之前两个模块多，由于涉及到金额的特殊性，需要完整的了解业务运行过程</t>
+  </si>
+  <si>
+    <t>销账模块功能测试，解决bug，界面优化</t>
   </si>
 </sst>
 </file>
@@ -329,12 +345,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -401,6 +417,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -408,7 +438,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -416,29 +454,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,14 +472,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,24 +491,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,10 +514,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,16 +537,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,19 +581,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,19 +629,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +653,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,73 +725,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,43 +761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,8 +882,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,30 +966,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -936,30 +976,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -968,10 +984,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,16 +996,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,115 +1014,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2143,8 +2159,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2290,6 +2306,234 @@
     <row r="11" ht="29.25" customHeight="1" spans="1:6">
       <c r="A11" s="18" t="s">
         <v>96</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" ht="28.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" customFormat="1" spans="2:2">
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" customFormat="1" spans="2:2">
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" customFormat="1" spans="2:2">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" customFormat="1" spans="2:2">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" customFormat="1" spans="2:2">
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" customFormat="1" spans="2:2">
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" customFormat="1" spans="2:2">
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:2">
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" customFormat="1" spans="2:2">
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:2">
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:2">
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" customFormat="1" spans="2:2">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" customFormat="1" spans="2:2">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:2">
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:2">
+      <c r="B27" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="63.25" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="38.45" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="39.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.9" customHeight="1" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="25.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="0.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" ht="32.45" customHeight="1" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" ht="29.25" customHeight="1" spans="1:6">
+      <c r="A11" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -3548,7 +3792,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/模板_第一事业部_姓名_工作日志_20180326.xlsx
+++ b/模板_第一事业部_姓名_工作日志_20180326.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765" firstSheet="9" activeTab="11"/>
+    <workbookView windowWidth="24000" windowHeight="9765" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="01-工作日志" sheetId="21" r:id="rId1"/>
@@ -19,13 +19,15 @@
     <sheet name="第一事业部_黄玉_工作日志_201903014" sheetId="30" r:id="rId10"/>
     <sheet name="第一事业部_黄玉_工作日志_201903015" sheetId="31" r:id="rId11"/>
     <sheet name="第一事业部_黄玉_工作日志_201903018" sheetId="32" r:id="rId12"/>
+    <sheet name="第一事业部_黄玉_工作日志_201903019" sheetId="33" r:id="rId13"/>
+    <sheet name="第一事业部_黄玉_工作日志_201903020" sheetId="34" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="111">
   <si>
     <t>工作日志</t>
   </si>
@@ -338,6 +340,33 @@
   </si>
   <si>
     <t>销账模块功能测试，解决bug，界面优化</t>
+  </si>
+  <si>
+    <t>根据crm系统测试问题反馈表，反馈的并解决了的功能点的销账模块进行集中测试</t>
+  </si>
+  <si>
+    <t>对各个模块进行功能测试、寻找bug、页面调试等</t>
+  </si>
+  <si>
+    <t>13:30-20:30</t>
+  </si>
+  <si>
+    <t>数据库表冗余字段太多，没有成熟的数据字典，不利于后期维护</t>
+  </si>
+  <si>
+    <t>处理crm管理系统的销账管理的界面不合理的地方（主要是销账管理）</t>
+  </si>
+  <si>
+    <t>将crm管理系统的销账管理模块弹窗风格进行统一</t>
+  </si>
+  <si>
+    <t>到账管理页面调整，查询调整</t>
+  </si>
+  <si>
+    <t>前端ext.js封装后阅读有点吃力</t>
+  </si>
+  <si>
+    <t>协助处理crm系统测试问题反馈表</t>
   </si>
 </sst>
 </file>
@@ -345,12 +374,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -417,7 +446,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,8 +488,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,7 +506,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,9 +567,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,75 +584,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,7 +610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,7 +628,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +742,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,109 +766,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,30 +785,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,6 +910,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -903,11 +943,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,22 +962,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,27 +983,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,145 +1013,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2387,8 +2416,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2534,6 +2563,462 @@
     <row r="11" ht="29.25" customHeight="1" spans="1:6">
       <c r="A11" s="18" t="s">
         <v>101</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" ht="28.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" customFormat="1" spans="2:2">
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" customFormat="1" spans="2:2">
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" customFormat="1" spans="2:2">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" customFormat="1" spans="2:2">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" customFormat="1" spans="2:2">
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" customFormat="1" spans="2:2">
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" customFormat="1" spans="2:2">
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:2">
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" customFormat="1" spans="2:2">
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:2">
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:2">
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" customFormat="1" spans="2:2">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" customFormat="1" spans="2:2">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:2">
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:2">
+      <c r="B27" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="63.25" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="38.45" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="39.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.9" customHeight="1" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="25.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="0.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" ht="32.45" customHeight="1" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" ht="29.25" customHeight="1" spans="1:6">
+      <c r="A11" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" ht="28.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" customFormat="1" spans="2:2">
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" customFormat="1" spans="2:2">
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" customFormat="1" spans="2:2">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" customFormat="1" spans="2:2">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" customFormat="1" spans="2:2">
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" customFormat="1" spans="2:2">
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" customFormat="1" spans="2:2">
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:2">
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" customFormat="1" spans="2:2">
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:2">
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:2">
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" customFormat="1" spans="2:2">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" customFormat="1" spans="2:2">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:2">
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:2">
+      <c r="B27" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="63.25" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="38.45" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="39.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.9" customHeight="1" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="25.9" hidden="1" customHeight="1" spans="1:6">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="0.6" hidden="1" customHeight="1" spans="1:6">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" ht="32.45" customHeight="1" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" ht="29.25" customHeight="1" spans="1:6">
+      <c r="A11" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
